--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3138022.932635756</v>
+        <v>3136135.351119354</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>579708.6662769302</v>
+        <v>698357.2899232161</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>271.0671397420492</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>110.8962306416539</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.45403149117942</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>99.44420492154083</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>16.60419043066639</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>85.94059021314987</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>6.283679164004356</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>30.62303270711554</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>15.9025280269544</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>136.1916198885551</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274216</v>
+        <v>81.7791350527404</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>106.7148935340131</v>
       </c>
       <c r="V13" t="n">
-        <v>7.014590437062345</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750031</v>
       </c>
       <c r="U22" t="n">
-        <v>58.42247119226072</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274077</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151914</v>
+        <v>245.5591000916435</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>1.878584356326446</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>166.043335665423</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.0297657647760019</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965534</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437423</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>1.341035737736634</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>55.21598883571491</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523579</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>632.3182666762915</v>
+        <v>1061.921889775366</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762915</v>
+        <v>692.9593728349539</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>334.6936742282034</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>334.6936742282034</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>327.7481734789999</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2135.291852247419</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.523196977305</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1409.057438716225</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y2" t="n">
-        <v>1018.918106740413</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600564</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600564</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>551.822117562146</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>382.8223173004784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>225.0739447330085</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>88.7450338316568</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>627.680292366494</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>627.680292366494</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>627.680292366494</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.683768698139</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D5" t="n">
-        <v>1194.683768698139</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E5" t="n">
-        <v>808.8955160998948</v>
+        <v>565.6609676543608</v>
       </c>
       <c r="F5" t="n">
-        <v>397.9096113102873</v>
+        <v>154.6750628647532</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>140.7516588033441</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4647,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4747,10 +4747,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T7" t="n">
         <v>598.0446400632119</v>
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1791.109440255352</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.010557593072</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2181.248772231163</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2181.248772231163</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>2181.248772231163</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>2181.248772231163</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.109440255352</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.7691122461817</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>712.0658245832483</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>712.0658245832483</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>712.0658245832483</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>712.0658245832483</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="X10" t="n">
-        <v>590.5616913897119</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.7691122461817</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805483</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822477</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>619.3968890222129</v>
       </c>
       <c r="M12" t="n">
-        <v>2056.693778606512</v>
+        <v>1387.765035414674</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>731.6365520183392</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C13" t="n">
-        <v>562.7003690904323</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>562.7003690904323</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1167.33803359588</v>
       </c>
       <c r="V13" t="n">
-        <v>1202.70218688554</v>
+        <v>912.6535453899927</v>
       </c>
       <c r="W13" t="n">
-        <v>913.2850168485789</v>
+        <v>623.236375353032</v>
       </c>
       <c r="X13" t="n">
-        <v>913.2850168485789</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="Y13" t="n">
-        <v>913.2850168485789</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,49 +5273,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,22 +5352,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952639</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5595,19 +5595,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527472</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
-        <v>1669.996816116898</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,22 +5698,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V19" t="n">
-        <v>835.4163915387938</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5732,19 +5732,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,13 +5753,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5832,22 +5832,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>417.5524109899876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1891.427750556797</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2411.728372292545</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5908,52 +5908,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U22" t="n">
-        <v>1016.198248099061</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V22" t="n">
-        <v>761.5137598931741</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W22" t="n">
-        <v>472.0965898562135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,13 +6011,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578673</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011508</v>
+        <v>1050.95676543139</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>796.2722772255034</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6221,10 +6221,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6242,16 +6242,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,13 +6260,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614725</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M27" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>676.0189678006951</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C28" t="n">
-        <v>507.0827848727882</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D28" t="n">
-        <v>507.0827848727882</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903951</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1497.018710602017</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1497.018710602017</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1273.233295391523</v>
       </c>
       <c r="U28" t="n">
-        <v>1220.120626043543</v>
+        <v>1273.233295391523</v>
       </c>
       <c r="V28" t="n">
-        <v>965.4361378376557</v>
+        <v>1018.548807185636</v>
       </c>
       <c r="W28" t="n">
-        <v>676.0189678006951</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="X28" t="n">
-        <v>676.0189678006951</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.0189678006951</v>
+        <v>729.1316371486756</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030865</v>
+        <v>565.3899630740206</v>
       </c>
       <c r="C31" t="n">
-        <v>452.2447118565503</v>
+        <v>452.2146454274845</v>
       </c>
       <c r="D31" t="n">
-        <v>357.8889377255853</v>
+        <v>452.2146454274845</v>
       </c>
       <c r="E31" t="n">
-        <v>357.8889377255853</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="F31" t="n">
-        <v>266.7598555090456</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>154.3453991102369</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818924</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652459</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030865</v>
+        <v>565.4200295030872</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578673</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -7017,22 +7017,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2881267578673</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,19 +7160,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7184,19 +7184,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,19 +7248,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103135</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,19 +7485,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649693</v>
@@ -7588,10 +7588,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8781,10 +8781,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,19 +23467,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>179.5224588645642</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1230528867657</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338615</v>
       </c>
       <c r="U22" t="n">
-        <v>227.8148812063166</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338591</v>
+        <v>40.67825230693387</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>108.0857680474664</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>120.1940167331543</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.5989577886042</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801216</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>92.3695360012423</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772962.0609560134</v>
+        <v>772962.0609560135</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914261</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="E2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.495580334</v>
       </c>
       <c r="G2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="K2" t="n">
-        <v>650915.4197524313</v>
+        <v>650915.4197524317</v>
       </c>
       <c r="L2" t="n">
+        <v>656833.415891428</v>
+      </c>
+      <c r="M2" t="n">
         <v>656833.4158914274</v>
       </c>
-      <c r="M2" t="n">
-        <v>656833.4158914273</v>
-      </c>
       <c r="N2" t="n">
-        <v>656833.4158914278</v>
+        <v>656833.415891428</v>
       </c>
       <c r="O2" t="n">
         <v>656833.4158914278</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.4158914275</v>
+        <v>656833.4158914281</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284578</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086693</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284568</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758037</v>
+        <v>787.793690575885</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758824</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.793690575921</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758901</v>
+        <v>787.7936905759043</v>
       </c>
       <c r="K4" t="n">
         <v>18952.41620477241</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="M4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189634</v>
-      </c>
       <c r="N4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="O5" t="n">
-        <v>97715.10582002538</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155052.6805671469</v>
+        <v>-155052.6805671466</v>
       </c>
       <c r="C6" t="n">
-        <v>434915.1986473979</v>
+        <v>434915.198647398</v>
       </c>
       <c r="D6" t="n">
-        <v>434915.1986473982</v>
+        <v>434915.1986473977</v>
       </c>
       <c r="E6" t="n">
-        <v>7711.339464145247</v>
+        <v>7613.880338173504</v>
       </c>
       <c r="F6" t="n">
-        <v>532871.3759410419</v>
+        <v>532773.9168150694</v>
       </c>
       <c r="G6" t="n">
-        <v>532871.3759410417</v>
+        <v>532773.9168150696</v>
       </c>
       <c r="H6" t="n">
-        <v>532871.3759410419</v>
+        <v>532773.9168150695</v>
       </c>
       <c r="I6" t="n">
-        <v>532871.3759410419</v>
+        <v>532773.9168150696</v>
       </c>
       <c r="J6" t="n">
-        <v>356448.1567484486</v>
+        <v>356350.6976224765</v>
       </c>
       <c r="K6" t="n">
-        <v>491172.1897145906</v>
+        <v>491153.6959766563</v>
       </c>
       <c r="L6" t="n">
-        <v>525568.8223386387</v>
+        <v>525568.8223386394</v>
       </c>
       <c r="M6" t="n">
-        <v>401110.7139056682</v>
+        <v>401110.7139056686</v>
       </c>
       <c r="N6" t="n">
+        <v>535911.7291395062</v>
+      </c>
+      <c r="O6" t="n">
         <v>535911.729139506</v>
       </c>
-      <c r="O6" t="n">
-        <v>535911.7291395061</v>
-      </c>
       <c r="P6" t="n">
-        <v>491749.1238366602</v>
+        <v>491749.1238366606</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964068</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964062</v>
-      </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26793,10 +26793,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108367</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>142.7170302787458</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>216.856027828481</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>10.74592769735757</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>112.7013340284781</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.1799795901286</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>237.9821825512073</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>17.8816912783675</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>96.25160475629394</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>48.19472341080731</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>185.8252876505422</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>196.2430109230645</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>89.51803550048206</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.62609764791297e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31367,7 +31367,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31376,7 +31376,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,22 +31835,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>168.544577409839</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>224.6051223555639</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32087,7 +32087,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6051223555648</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>102.4943942860912</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>143.8894692628929</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32786,28 +32786,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -33023,28 +33023,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>380.4309478731437</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33260,28 +33260,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>380.4309478731437</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33430,7 +33430,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927201</v>
       </c>
       <c r="O32" t="n">
         <v>562.4526372540886</v>
@@ -33497,28 +33497,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33679,7 +33679,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33734,28 +33734,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33904,7 +33904,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927201</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
         <v>562.4526372540886</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33983,7 +33983,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34129,7 +34129,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34220,7 +34220,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34366,7 +34366,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34445,28 +34445,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>216.4869287318326</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>400.8305429334239</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>572.6057846157842</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35735,10 +35735,10 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6057846157851</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>286.9827555116981</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.9849829127205</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>728.431610133364</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>728.431610133364</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412253</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043176</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37552,7 +37552,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37631,7 +37631,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37868,7 +37868,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
